--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H2">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N2">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O2">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P2">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q2">
-        <v>19.09514964912141</v>
+        <v>47.26664146189867</v>
       </c>
       <c r="R2">
-        <v>19.09514964912141</v>
+        <v>425.399773157088</v>
       </c>
       <c r="S2">
-        <v>0.001311162054943446</v>
+        <v>0.002703758049152026</v>
       </c>
       <c r="T2">
-        <v>0.001311162054943446</v>
+        <v>0.002703758049152026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H3">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N3">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O3">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P3">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q3">
-        <v>1373.29973740638</v>
+        <v>2945.541228791982</v>
       </c>
       <c r="R3">
-        <v>1373.29973740638</v>
+        <v>26509.87105912783</v>
       </c>
       <c r="S3">
-        <v>0.09429716649714195</v>
+        <v>0.1684915737640302</v>
       </c>
       <c r="T3">
-        <v>0.09429716649714195</v>
+        <v>0.1684915737640302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H4">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I4">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J4">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N4">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O4">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P4">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q4">
-        <v>328.2212882034464</v>
+        <v>885.5919911870041</v>
       </c>
       <c r="R4">
-        <v>328.2212882034464</v>
+        <v>7970.327920683036</v>
       </c>
       <c r="S4">
-        <v>0.02253720482032549</v>
+        <v>0.05065785087283097</v>
       </c>
       <c r="T4">
-        <v>0.02253720482032549</v>
+        <v>0.05065785087283097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H5">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N5">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O5">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P5">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q5">
-        <v>116.8532006347491</v>
+        <v>135.6134554957298</v>
       </c>
       <c r="R5">
-        <v>116.8532006347491</v>
+        <v>1220.521099461568</v>
       </c>
       <c r="S5">
-        <v>0.008023685882871617</v>
+        <v>0.007757394232578731</v>
       </c>
       <c r="T5">
-        <v>0.008023685882871617</v>
+        <v>0.007757394232578731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H6">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J6">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N6">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O6">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P6">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q6">
-        <v>8403.938837639827</v>
+        <v>8451.098110357951</v>
       </c>
       <c r="R6">
-        <v>8403.938837639827</v>
+        <v>76059.88299322156</v>
       </c>
       <c r="S6">
-        <v>0.5770536454782831</v>
+        <v>0.4834217924807033</v>
       </c>
       <c r="T6">
-        <v>0.5770536454782831</v>
+        <v>0.4834217924807033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H7">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J7">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N7">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O7">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P7">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q7">
-        <v>2008.557604825989</v>
+        <v>2540.865743148344</v>
       </c>
       <c r="R7">
-        <v>2008.557604825989</v>
+        <v>22867.7916883351</v>
       </c>
       <c r="S7">
-        <v>0.1379169351907699</v>
+        <v>0.1453432271127144</v>
       </c>
       <c r="T7">
-        <v>0.1379169351907699</v>
+        <v>0.1453432271127144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H8">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I8">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J8">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N8">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O8">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P8">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q8">
-        <v>25.67561554927601</v>
+        <v>30.17360319502933</v>
       </c>
       <c r="R8">
-        <v>25.67561554927601</v>
+        <v>271.562428755264</v>
       </c>
       <c r="S8">
-        <v>0.001763007541921809</v>
+        <v>0.001725997870532914</v>
       </c>
       <c r="T8">
-        <v>0.001763007541921809</v>
+        <v>0.001725997870532914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H9">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I9">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J9">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N9">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O9">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P9">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q9">
-        <v>1846.558772226761</v>
+        <v>1880.344985031611</v>
       </c>
       <c r="R9">
-        <v>1846.558772226761</v>
+        <v>16923.10486528449</v>
       </c>
       <c r="S9">
-        <v>0.1267933396100976</v>
+        <v>0.1075599562655629</v>
       </c>
       <c r="T9">
-        <v>0.1267933396100976</v>
+        <v>0.1075599562655629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H10">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I10">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J10">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N10">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O10">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P10">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q10">
-        <v>441.3311110859798</v>
+        <v>565.335308545512</v>
       </c>
       <c r="R10">
-        <v>441.3311110859798</v>
+        <v>5088.017776909607</v>
       </c>
       <c r="S10">
-        <v>0.03030385292364505</v>
+        <v>0.03233844935189462</v>
       </c>
       <c r="T10">
-        <v>0.03030385292364505</v>
+        <v>0.03233844935189461</v>
       </c>
     </row>
   </sheetData>
